--- a/TM result.xlsx
+++ b/TM result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="25">
   <si>
     <t>Num</t>
   </si>
@@ -85,7 +85,10 @@
     <t>TFIDF, bag, POStag adj*2</t>
   </si>
   <si>
-    <t>TFIDF, bag, POStag adj*10</t>
+    <t>SVM linear</t>
+  </si>
+  <si>
+    <t>SVM RBF</t>
   </si>
 </sst>
 </file>
@@ -427,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -501,7 +504,7 @@
         <v>6</v>
       </c>
       <c r="F4">
-        <v>75</v>
+        <v>74.680000000000007</v>
       </c>
       <c r="G4" t="s">
         <v>8</v>
@@ -510,16 +513,16 @@
         <v>13</v>
       </c>
       <c r="I4">
-        <v>1544</v>
+        <v>1525</v>
       </c>
       <c r="J4">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="K4">
-        <v>719</v>
+        <v>738</v>
       </c>
       <c r="L4">
-        <v>2086</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -536,10 +539,10 @@
         <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F5">
-        <v>69.44</v>
+        <v>77.209999999999994</v>
       </c>
       <c r="G5" t="s">
         <v>9</v>
@@ -548,16 +551,16 @@
         <v>14</v>
       </c>
       <c r="I5">
-        <v>1185</v>
+        <v>1695</v>
       </c>
       <c r="J5">
-        <v>401</v>
+        <v>440</v>
       </c>
       <c r="K5">
-        <v>1078</v>
+        <v>745</v>
       </c>
       <c r="L5">
-        <v>2175</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
@@ -574,10 +577,10 @@
         <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F6">
-        <v>42.6</v>
+        <v>42.32</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -586,13 +589,13 @@
         <v>15</v>
       </c>
       <c r="I6">
-        <v>1465</v>
+        <v>1451</v>
       </c>
       <c r="J6">
         <v>1979</v>
       </c>
       <c r="K6">
-        <v>798</v>
+        <v>812</v>
       </c>
       <c r="L6">
         <v>597</v>
@@ -603,37 +606,37 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>20</v>
       </c>
       <c r="D7">
-        <v>69.599999999999994</v>
+        <v>53.23</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F7">
-        <v>70.2</v>
-      </c>
-      <c r="G7">
-        <v>0.18</v>
+        <v>78.900000000000006</v>
+      </c>
+      <c r="G7" t="s">
+        <v>9</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I7">
-        <v>1132</v>
+        <v>1687</v>
       </c>
       <c r="J7">
-        <v>1103</v>
+        <v>400</v>
       </c>
       <c r="K7">
-        <v>339</v>
+        <v>621</v>
       </c>
       <c r="L7">
-        <v>2265</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
@@ -641,37 +644,19 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>20</v>
       </c>
       <c r="D8">
-        <v>51.66</v>
+        <v>53.23</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8">
-        <v>72.349999999999994</v>
-      </c>
-      <c r="G8" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8">
-        <v>1906</v>
-      </c>
-      <c r="J8">
-        <v>744</v>
-      </c>
-      <c r="K8">
-        <v>594</v>
-      </c>
-      <c r="L8">
-        <v>1595</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
@@ -688,28 +673,28 @@
         <v>53.23</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F9">
-        <v>75.02</v>
+        <v>78.59</v>
       </c>
       <c r="G9" t="s">
         <v>9</v>
       </c>
       <c r="H9" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I9">
-        <v>1544</v>
+        <v>1676</v>
       </c>
       <c r="J9">
-        <v>490</v>
+        <v>449</v>
       </c>
       <c r="K9">
-        <v>719</v>
+        <v>587</v>
       </c>
       <c r="L9">
-        <v>2086</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
@@ -726,13 +711,28 @@
         <v>53.23</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="F10">
-        <v>75.02</v>
+        <v>71.36</v>
+      </c>
+      <c r="G10" t="s">
+        <v>9</v>
       </c>
       <c r="H10" t="s">
-        <v>22</v>
+        <v>13</v>
+      </c>
+      <c r="I10">
+        <v>962</v>
+      </c>
+      <c r="J10">
+        <v>85</v>
+      </c>
+      <c r="K10">
+        <v>1301</v>
+      </c>
+      <c r="L10">
+        <v>2491</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
@@ -743,41 +743,235 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D11">
-        <v>53.23</v>
+        <v>53.16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
       </c>
       <c r="F11">
-        <v>74.209999999999994</v>
+        <v>78.2</v>
       </c>
       <c r="G11" t="s">
         <v>9</v>
       </c>
       <c r="H11" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="I11">
+        <v>7929</v>
+      </c>
+      <c r="J11">
+        <v>1870</v>
+      </c>
+      <c r="K11">
+        <v>3404</v>
+      </c>
+      <c r="L11">
+        <v>10992</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>9</v>
-      </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="C12">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D12">
-        <v>53.23</v>
+        <v>53.16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>52.92</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>72.849999999999994</v>
+      </c>
+      <c r="G13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13">
+        <v>1976</v>
+      </c>
+      <c r="J13">
+        <v>729</v>
+      </c>
+      <c r="K13">
+        <v>585</v>
+      </c>
+      <c r="L13">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14">
         <v>10</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>51.66</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14">
+        <v>76.849999999999994</v>
+      </c>
+      <c r="G14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14">
+        <v>2009</v>
+      </c>
+      <c r="J14">
+        <v>629</v>
+      </c>
+      <c r="K14">
+        <v>491</v>
+      </c>
+      <c r="L14">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15">
         <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>52.92</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15">
+        <v>77.290000000000006</v>
+      </c>
+      <c r="G15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15">
+        <v>2098</v>
+      </c>
+      <c r="J15">
+        <v>636</v>
+      </c>
+      <c r="K15">
+        <v>463</v>
+      </c>
+      <c r="L15">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <v>52.92</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16">
+        <v>77.37</v>
+      </c>
+      <c r="H16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16">
+        <v>2016</v>
+      </c>
+      <c r="J16">
+        <v>640</v>
+      </c>
+      <c r="K16">
+        <v>455</v>
+      </c>
+      <c r="L16">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>100</v>
+      </c>
+      <c r="D17">
+        <v>52.27</v>
+      </c>
+      <c r="E17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17">
+        <v>77.09</v>
+      </c>
+      <c r="G17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17">
+        <v>10453</v>
+      </c>
+      <c r="J17">
+        <v>3349</v>
+      </c>
+      <c r="K17">
+        <v>2194</v>
+      </c>
+      <c r="L17">
+        <v>8199</v>
       </c>
     </row>
   </sheetData>
